--- a/municipal/ტრანსპორტი და დასაწყობება/საერთო სარგებლობის საავტომობილო გზების სიგრძე/ქვემო ქართლი/ქ. რუსთავის მუნიციპალიტეტი.xlsx
+++ b/municipal/ტრანსპორტი და დასაწყობება/საერთო სარგებლობის საავტომობილო გზების სიგრძე/ქვემო ქართლი/ქ. რუსთავის მუნიციპალიტეტი.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\ტრანსპორტი და დასაწყობება ქარ. EN\საერთო სარგებლობის საავტომობილო გზების სიგრძე\ქვემო ქართლი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA208B6D-5C60-4EE2-B5FD-79E7D3916F30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12675" yWindow="15" windowWidth="13530" windowHeight="15600"/>
+    <workbookView xWindow="1665" yWindow="540" windowWidth="13200" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ქ.რუსთავი" sheetId="1" r:id="rId1"/>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -181,11 +182,11 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -205,13 +206,13 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -492,8 +493,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,10 +502,11 @@
   <cols>
     <col min="1" max="1" width="28.5703125" style="14" customWidth="1"/>
     <col min="2" max="6" width="18.140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="12.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -513,7 +515,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -522,7 +524,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6">
         <v>2017</v>
@@ -539,8 +541,11 @@
       <c r="F3" s="7">
         <v>2021</v>
       </c>
+      <c r="G3" s="7">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -559,8 +564,11 @@
       <c r="F4" s="10">
         <v>0</v>
       </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -579,11 +587,14 @@
       <c r="F5" s="12">
         <v>0</v>
       </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
